--- a/Time Series/Unit 4/Excel Factor Calculator.xlsx
+++ b/Time Series/Unit 4/Excel Factor Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Share\SMU\Time Series\Unit 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMU\Time Series\Unit 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44979AD1-BFF5-485D-ADCA-381788FD67AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9526E86-E55C-4C8F-BD10-7F0646DB4CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{123AB5D5-CCD6-42F2-BF76-534F8E50B8F9}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>+</t>
   </si>
@@ -80,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -131,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924B7C49-8BE7-4181-BA42-81660A5A2FAA}">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:H39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +491,7 @@
         <f>"+/-"</f>
         <v>+/-</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -501,23 +503,23 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>-0.4</v>
+        <v>-0.12</v>
       </c>
       <c r="E5">
         <f>-C6</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
         <f>SQRT(C6^2-4*C5*C7)</f>
-        <v>1.2806248474865698</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
         <f>(E5+F5)/(2*C5)</f>
-        <v>-1.8507810593582121</v>
+        <v>-5.0000000000000009</v>
       </c>
       <c r="H5">
         <f>(E5-F5)/(2*C5)</f>
-        <v>1.3507810593582121</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,22 +571,22 @@
       </c>
       <c r="B12">
         <f>-C12</f>
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
         <f>-C13</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="str">
         <f>(IFERROR(SQRT(C13^2-4*C12*C14)/(2*C12),COMPLEX(E12/(2*C12),-SQRT(-(C13^2-4*C12*C14))/(2*C12))))</f>
-        <v>0.125-1.11102430216445i</v>
+        <v>0.1875-1.56998208588506i</v>
       </c>
       <c r="G12" t="str">
         <f>(IFERROR(SQRT(C13^2-4*C12*C14)/(2*C12),COMPLEX(E12/(2*C12),SQRT(-(C13^2-4*C12*C14))/(2*C12))))</f>
-        <v>0.125+1.11102430216445i</v>
+        <v>0.1875+1.56998208588506i</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -593,10 +595,10 @@
       </c>
       <c r="B13">
         <f>-C13</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>-0.2</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,24 +612,28 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15">
         <f>SQRT(IMREAL(F12)^2+IMAGINARY(F12)^2)</f>
-        <v>1.1180339887498962</v>
+        <v>1.5811388300841909</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="H15">
+        <f>1/F15</f>
+        <v>0.63245553203367544</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16">
         <f>B13/(2*SQRT(-B12))</f>
-        <v>0.1118033988749895</v>
+        <v>0.11858541225631422</v>
       </c>
       <c r="E16">
         <f>ACOS(D16)</f>
-        <v>1.458758684143987</v>
+        <v>1.4519312063094616</v>
       </c>
       <c r="F16">
         <f>E16/(2*PI())</f>
-        <v>0.23216865535974437</v>
+        <v>0.23108202851352933</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -636,7 +642,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17">
         <f>1/F16</f>
-        <v>4.3072136436785753</v>
+        <v>4.3274676374993488</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -660,22 +666,22 @@
       </c>
       <c r="B22">
         <f>-C22</f>
-        <v>-0.75</v>
+        <v>-0.4</v>
       </c>
       <c r="C22">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="E22">
         <f>-C23</f>
-        <v>1.38</v>
+        <v>-0.15</v>
       </c>
       <c r="F22" t="str">
         <f>(IFERROR(SQRT(C23^2-4*C22*C24)/(2*C22),COMPLEX(E22/(2*C22),-SQRT(-(C23^2-4*C22*C24))/(2*C22))))</f>
-        <v>0.92-0.697806085766908i</v>
+        <v>-0.1875-1.56998208588506i</v>
       </c>
       <c r="G22" t="str">
         <f>(IFERROR(SQRT(C23^2-4*C22*C24)/(2*C22),COMPLEX(E22/(2*C22),SQRT(-(C23^2-4*C22*C24))/(2*C22))))</f>
-        <v>0.92+0.697806085766908i</v>
+        <v>-0.1875+1.56998208588506i</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,10 +690,10 @@
       </c>
       <c r="B23">
         <f>-C23</f>
-        <v>1.38</v>
+        <v>-0.15</v>
       </c>
       <c r="C23">
-        <v>-1.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -701,7 +707,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25">
         <f>SQRT(IMREAL(F22)^2+IMAGINARY(F22)^2)</f>
-        <v>1.1547005383792515</v>
+        <v>1.5811388300841909</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -710,15 +716,15 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>B23/(2*SQRT(-B22))</f>
-        <v>0.7967433714816835</v>
+        <v>-0.11858541225631422</v>
       </c>
       <c r="E26">
         <f>ACOS(D26)</f>
-        <v>0.64890935002019634</v>
+        <v>1.6896614472803315</v>
       </c>
       <c r="F26">
         <f>E26/(2*PI())</f>
-        <v>0.10327713067426314</v>
+        <v>0.26891797148647067</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -727,7 +733,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27">
         <f>1/F26</f>
-        <v>9.6826857356640517</v>
+        <v>3.7186060659032982</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -738,7 +744,7 @@
         <f>"+/-"</f>
         <v>+/-</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -818,6 +824,85 @@
         <v>3.3079347954754215</v>
       </c>
       <c r="G38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="str">
+        <f>"+/-"</f>
+        <v>+/-</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>-C41</f>
+        <v>-0.6</v>
+      </c>
+      <c r="C41">
+        <v>0.6</v>
+      </c>
+      <c r="E41">
+        <f>-C42</f>
+        <v>-0.5</v>
+      </c>
+      <c r="F41" t="str">
+        <f>(IFERROR(SQRT(C42^2-4*C41*C43)/(2*C41),COMPLEX(E41/(2*C41),-SQRT(-(C42^2-4*C41*C43))/(2*C41))))</f>
+        <v>-0.416666666666667-1.2219065248846i</v>
+      </c>
+      <c r="G41" t="str">
+        <f>(IFERROR(SQRT(C42^2-4*C41*C43)/(2*C41),COMPLEX(E41/(2*C41),SQRT(-(C42^2-4*C41*C43))/(2*C41))))</f>
+        <v>-0.416666666666667+1.2219065248846i</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>-C42</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>SQRT(IMREAL(F41)^2+IMAGINARY(F41)^2)</f>
+        <v>1.2909944487358072</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>B42/(2*SQRT(-B41))</f>
+        <v>-0.3227486121839514</v>
+      </c>
+      <c r="E45">
+        <f>ACOS(D45)</f>
+        <v>1.8994284034176547</v>
+      </c>
+      <c r="F45">
+        <f>E45/(2*PI())</f>
+        <v>0.30230341945306649</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f>1/F45</f>
+        <v>3.3079347954754215</v>
+      </c>
+      <c r="G46" t="s">
         <v>13</v>
       </c>
     </row>
